--- a/Catálogo TV.xlsx
+++ b/Catálogo TV.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\O830601\Documents\Analisis Carteras\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C702769-7A55-4FF6-9E2F-07CAED441B73}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE2B90AD-EAD4-4945-BFB5-E45E0AEB9057}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-51720" yWindow="990" windowWidth="51840" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2179,8 +2179,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2897,10 +2897,10 @@
         <v>18</v>
       </c>
       <c r="D42" t="s">
-        <v>19</v>
+        <v>94</v>
       </c>
       <c r="E42" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
